--- a/new-stats/kv-kortrijk.xlsx
+++ b/new-stats/kv-kortrijk.xlsx
@@ -2394,22 +2394,62 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>25/04/2025</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Beerschot VA</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M35" t="n">
+        <v>11</v>
+      </c>
+      <c r="N35" t="n">
+        <v>5</v>
+      </c>
+      <c r="O35" t="n">
+        <v>3</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>

--- a/new-stats/kv-kortrijk.xlsx
+++ b/new-stats/kv-kortrijk.xlsx
@@ -2452,22 +2452,62 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>03/05/2025</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="n">
+        <v>16</v>
+      </c>
+      <c r="O36" t="n">
+        <v>4</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>

--- a/new-stats/kv-kortrijk.xlsx
+++ b/new-stats/kv-kortrijk.xlsx
@@ -2510,22 +2510,62 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>10/05/2025</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>St. Truiden</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="M37" t="n">
+        <v>18</v>
+      </c>
+      <c r="N37" t="n">
+        <v>16</v>
+      </c>
+      <c r="O37" t="n">
+        <v>6</v>
+      </c>
+      <c r="P37" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>

--- a/new-stats/kv-kortrijk.xlsx
+++ b/new-stats/kv-kortrijk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,114 +1145,6 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr"/>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr"/>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
